--- a/OpenFFBoard-main/Assembly_JLC/JLC BOM STM FFBoard.xlsx
+++ b/OpenFFBoard-main/Assembly_JLC/JLC BOM STM FFBoard.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">100nF</t>
   </si>
   <si>
-    <t xml:space="preserve">C5, C6, C7, C8, C9, C12, C13</t>
+    <t xml:space="preserve">C5, C6, C7, C8, C9, C12, C13,C15</t>
   </si>
   <si>
     <t xml:space="preserve">C0603</t>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
